--- a/ridesharing_sim_qt/tempmappe_pfull_minimal_matlab_new.xlsx
+++ b/ridesharing_sim_qt/tempmappe_pfull_minimal_matlab_new.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ms119322\Source\Repos\ridesharing_sim_qt\ridesharing_sim_qt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB18532-9ECE-4602-8455-59DC138EF6DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E626DABD-43B1-499C-B8D1-4E57A6D012FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A24B3BB2-7B7E-4250-8A4F-5387B3C3DB1B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{A24B3BB2-7B7E-4250-8A4F-5387B3C3DB1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="minimal pfull complete" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="15">
   <si>
     <t>B</t>
   </si>
@@ -42,12 +44,6 @@
   </si>
   <si>
     <t>s.c.</t>
-  </si>
-  <si>
-    <t>summeprobs</t>
-  </si>
-  <si>
-    <t>qbar</t>
   </si>
   <si>
     <t>minmal: p_full_matlab</t>
@@ -68,12 +64,77 @@
       <t>NEW</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">minmal: p_full_matlab </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NEW</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>POISSON</t>
+    </r>
+  </si>
+  <si>
+    <t>WRONG</t>
+  </si>
+  <si>
+    <t>minimal, B=1</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>matlab exp</t>
+  </si>
+  <si>
+    <t>minimal.B=500</t>
+  </si>
+  <si>
+    <t>matlab const</t>
+  </si>
+  <si>
+    <t>theta</t>
+  </si>
+  <si>
+    <t>{1}</t>
+  </si>
+  <si>
+    <t>{2}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +153,14 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -441,16 +510,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE28F234-59B1-4A5D-873A-C7AEE5C70D04}">
-  <dimension ref="A3:BC255"/>
+  <dimension ref="A3:BM255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="D191" sqref="D191"/>
+    <sheetView topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="C198" sqref="C198:D254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
@@ -1689,7 +1759,7 @@
         <v>0.90122800000000003</v>
       </c>
     </row>
-    <row r="177" spans="2:55" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B177">
         <v>21.829855537720707</v>
       </c>
@@ -1697,7 +1767,7 @@
         <v>0.91966999999999999</v>
       </c>
     </row>
-    <row r="178" spans="2:55" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B178">
         <v>28.410914927768861</v>
       </c>
@@ -1705,7 +1775,7 @@
         <v>0.93326200000000004</v>
       </c>
     </row>
-    <row r="179" spans="2:55" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:65" x14ac:dyDescent="0.3">
       <c r="C179">
         <v>1</v>
       </c>
@@ -1770,7 +1840,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="180" spans="2:55" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B180">
         <v>3.5114965192724699E-3</v>
       </c>
@@ -1838,7 +1908,7 @@
         <v>2.0252420340028001E-5</v>
       </c>
     </row>
-    <row r="181" spans="2:55" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B181">
         <f>B180*0</f>
         <v>0</v>
@@ -1928,32 +1998,395 @@
         <v>4.2530082714058805E-4</v>
       </c>
     </row>
-    <row r="183" spans="2:55" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:65" x14ac:dyDescent="0.3">
+      <c r="B182">
+        <v>0.40979598956895003</v>
+      </c>
+      <c r="C182">
+        <v>5.5625079964247502E-2</v>
+      </c>
+      <c r="D182">
+        <v>0.25824233635816402</v>
+      </c>
+      <c r="E182">
+        <v>0.58901548627895595</v>
+      </c>
+      <c r="F182">
+        <v>6.3947968098095999E-3</v>
+      </c>
+      <c r="G182">
+        <v>5.9233549323714003E-2</v>
+      </c>
+      <c r="H182">
+        <v>0.19215404836529901</v>
+      </c>
+      <c r="I182">
+        <v>0.40527130329440397</v>
+      </c>
+      <c r="J182">
+        <v>0.68138124696554403</v>
+      </c>
+      <c r="K182">
+        <v>6.4731255923328504E-4</v>
+      </c>
+      <c r="L182">
+        <v>1.26174734573411E-2</v>
+      </c>
+      <c r="M182">
+        <v>5.9127790680243403E-2</v>
+      </c>
+      <c r="N182">
+        <v>0.156317440941459</v>
+      </c>
+      <c r="O182">
+        <v>0.307031253016669</v>
+      </c>
+      <c r="P182">
+        <v>0.50489076605586602</v>
+      </c>
+      <c r="Q182">
+        <v>0.73948346408461896</v>
+      </c>
+      <c r="R182" s="1">
+        <v>6.0166218377944498E-5</v>
+      </c>
+      <c r="S182">
+        <v>2.61478994275643E-3</v>
+      </c>
+      <c r="T182">
+        <v>1.7760487551647601E-2</v>
+      </c>
+      <c r="U182">
+        <v>5.8672127235652197E-2</v>
+      </c>
+      <c r="V182">
+        <v>0.134424303702293</v>
+      </c>
+      <c r="W182">
+        <v>0.247934188155289</v>
+      </c>
+      <c r="X182">
+        <v>0.39701985356904401</v>
+      </c>
+      <c r="Y182">
+        <v>0.57639833151620801</v>
+      </c>
+      <c r="Z182">
+        <v>0.77954124464336705</v>
+      </c>
+      <c r="AA182" s="1">
+        <v>5.3995222607374104E-6</v>
+      </c>
+      <c r="AB182">
+        <v>5.5166527019031198E-4</v>
+      </c>
+      <c r="AC182">
+        <v>5.3980559295215497E-3</v>
+      </c>
+      <c r="AD182">
+        <v>2.2032555804596898E-2</v>
+      </c>
+      <c r="AE182">
+        <v>5.8345264251017097E-2</v>
+      </c>
+      <c r="AF182">
+        <v>0.119985157984556</v>
+      </c>
+      <c r="AG182">
+        <v>0.20943132376818999</v>
+      </c>
+      <c r="AH182">
+        <v>0.326217664378397</v>
+      </c>
+      <c r="AI182">
+        <v>0.46771283615263398</v>
+      </c>
+      <c r="AJ182">
+        <v>0.630034894823569</v>
+      </c>
+      <c r="AK182">
+        <v>0.80885714313356305</v>
+      </c>
+      <c r="AL182" s="1">
+        <v>4.9224861690789797E-7</v>
+      </c>
+      <c r="AM182">
+        <v>1.21831240171071E-4</v>
+      </c>
+      <c r="AN182">
+        <v>1.7009815144335501E-3</v>
+      </c>
+      <c r="AO182">
+        <v>8.4693782641277592E-3</v>
+      </c>
+      <c r="AP182">
+        <v>2.56196025815256E-2</v>
+      </c>
+      <c r="AQ182">
+        <v>5.8185611929966102E-2</v>
+      </c>
+      <c r="AR182">
+        <v>0.10993069312163301</v>
+      </c>
+      <c r="AS182">
+        <v>0.18285892238656801</v>
+      </c>
+      <c r="AT182">
+        <v>0.27720596778565798</v>
+      </c>
+      <c r="AU182">
+        <v>0.39173435261869</v>
+      </c>
+      <c r="AV182">
+        <v>0.52417380910289102</v>
+      </c>
+      <c r="AW182">
+        <v>0.67168275847863101</v>
+      </c>
+      <c r="AX182">
+        <v>0.83125043798475196</v>
+      </c>
+      <c r="AY182" s="1">
+        <v>4.7205962766140997E-8</v>
+      </c>
+      <c r="AZ182" s="1">
+        <v>2.82451868283853E-5</v>
+      </c>
+      <c r="BA182">
+        <v>5.5902137988043997E-4</v>
+      </c>
+      <c r="BB182">
+        <v>3.3682647388456402E-3</v>
+      </c>
+      <c r="BC182">
+        <v>1.15323938594592E-2</v>
+      </c>
+      <c r="BD182">
+        <v>2.8666262670811099E-2</v>
+      </c>
+      <c r="BE182">
+        <v>5.8156686660025499E-2</v>
+      </c>
+      <c r="BF182">
+        <v>0.102634818155783</v>
+      </c>
+      <c r="BG182">
+        <v>0.163698216150579</v>
+      </c>
+      <c r="BH182">
+        <v>0.241846557241537</v>
+      </c>
+      <c r="BI182">
+        <v>0.33658082426965202</v>
+      </c>
+      <c r="BJ182">
+        <v>0.44660827733631703</v>
+      </c>
+      <c r="BK182">
+        <v>0.57009622290569495</v>
+      </c>
+      <c r="BL182">
+        <v>0.70492675192599197</v>
+      </c>
+      <c r="BM182">
+        <v>0.84891890832005201</v>
+      </c>
+    </row>
+    <row r="183" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B183">
-        <f>SUM(B180:Y180)</f>
-        <v>0.99998032289474481</v>
+        <v>0.5</v>
+      </c>
+      <c r="C183">
+        <v>0.13397459621555999</v>
       </c>
       <c r="D183">
-        <f>SUM(B181:W181)</f>
-        <v>5.8087996833260043</v>
+        <v>0.381966011250083</v>
+      </c>
+      <c r="E183">
+        <v>0.67712434430114499</v>
       </c>
       <c r="F183">
-        <f>1/(1+2*(D183-5.5/2)/5.5)</f>
-        <v>0.47341966497722376</v>
-      </c>
-    </row>
-    <row r="184" spans="2:55" x14ac:dyDescent="0.3">
-      <c r="B184" t="s">
-        <v>3</v>
-      </c>
-      <c r="D184" t="s">
-        <v>4</v>
-      </c>
-      <c r="F184" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="2:55" x14ac:dyDescent="0.3">
+        <v>4.0180217080291E-2</v>
+      </c>
+      <c r="G183">
+        <v>0.160713244785817</v>
+      </c>
+      <c r="H183">
+        <v>0.33053272861900002</v>
+      </c>
+      <c r="I183">
+        <v>0.53249611624792104</v>
+      </c>
+      <c r="J183">
+        <v>0.75747361721153506</v>
+      </c>
+      <c r="K183">
+        <v>1.2775377723769099E-2</v>
+      </c>
+      <c r="L183">
+        <v>7.2438024517053196E-2</v>
+      </c>
+      <c r="M183">
+        <v>0.17250969843136599</v>
+      </c>
+      <c r="N183">
+        <v>0.301931060945971</v>
+      </c>
+      <c r="O183">
+        <v>0.45344254530874301</v>
+      </c>
+      <c r="P183">
+        <v>0.62229768177335998</v>
+      </c>
+      <c r="Q183">
+        <v>0.80522619095533599</v>
+      </c>
+      <c r="R183">
+        <v>4.1729492955049196E-3</v>
+      </c>
+      <c r="S183">
+        <v>3.4051763354493801E-2</v>
+      </c>
+      <c r="T183">
+        <v>9.42290769692323E-2</v>
+      </c>
+      <c r="U183">
+        <v>0.17917004470057399</v>
+      </c>
+      <c r="V183">
+        <v>0.28376704940585701</v>
+      </c>
+      <c r="W183">
+        <v>0.40426159723051303</v>
+      </c>
+      <c r="X183">
+        <v>0.537904562458974</v>
+      </c>
+      <c r="Y183">
+        <v>0.68261643476813105</v>
+      </c>
+      <c r="Z183">
+        <v>0.83675570355079698</v>
+      </c>
+      <c r="AA183">
+        <v>1.3793348977997001E-3</v>
+      </c>
+      <c r="AB183">
+        <v>1.6417156575653499E-2</v>
+      </c>
+      <c r="AC183">
+        <v>5.3065672382814601E-2</v>
+      </c>
+      <c r="AD183">
+        <v>0.10980333313144799</v>
+      </c>
+      <c r="AE183">
+        <v>0.18345124628561599</v>
+      </c>
+      <c r="AF183">
+        <v>0.27121891063846698</v>
+      </c>
+      <c r="AG183">
+        <v>0.37089663271152101</v>
+      </c>
+      <c r="AH183">
+        <v>0.48073461141659202</v>
+      </c>
+      <c r="AI183">
+        <v>0.59930943234942202</v>
+      </c>
+      <c r="AJ183">
+        <v>0.72542815016247697</v>
+      </c>
+      <c r="AK183">
+        <v>0.85806804811366399</v>
+      </c>
+      <c r="AL183">
+        <v>4.5822633971614302E-4</v>
+      </c>
+      <c r="AM183">
+        <v>8.0358033949449893E-3</v>
+      </c>
+      <c r="AN183">
+        <v>3.0505824559672601E-2</v>
+      </c>
+      <c r="AO183">
+        <v>6.8857512126765497E-2</v>
+      </c>
+      <c r="AP183">
+        <v>0.121475533679768</v>
+      </c>
+      <c r="AQ183">
+        <v>0.186430396926522</v>
+      </c>
+      <c r="AR183">
+        <v>0.26201388675181603</v>
+      </c>
+      <c r="AS183">
+        <v>0.346790662022051</v>
+      </c>
+      <c r="AT183">
+        <v>0.43954865058312198</v>
+      </c>
+      <c r="AU183">
+        <v>0.53924630818005104</v>
+      </c>
+      <c r="AV183">
+        <v>0.64497600187777004</v>
+      </c>
+      <c r="AW183">
+        <v>0.75594129278379196</v>
+      </c>
+      <c r="AX183">
+        <v>0.87144223767828799</v>
+      </c>
+      <c r="AY183">
+        <v>1.52539844270318E-4</v>
+      </c>
+      <c r="AZ183">
+        <v>3.9688202645660701E-3</v>
+      </c>
+      <c r="BA183">
+        <v>1.77833073346342E-2</v>
+      </c>
+      <c r="BB183">
+        <v>4.3902554498400602E-2</v>
+      </c>
+      <c r="BC183">
+        <v>8.1889569546266805E-2</v>
+      </c>
+      <c r="BD183">
+        <v>0.130543122245485</v>
+      </c>
+      <c r="BE183">
+        <v>0.188600930889533</v>
+      </c>
+      <c r="BF183">
+        <v>0.25491445097806198</v>
+      </c>
+      <c r="BG183">
+        <v>0.32846701124349298</v>
+      </c>
+      <c r="BH183">
+        <v>0.40835792985254199</v>
+      </c>
+      <c r="BI183">
+        <v>0.493786653708914</v>
+      </c>
+      <c r="BJ183">
+        <v>0.58404216943479903</v>
+      </c>
+      <c r="BK183">
+        <v>0.67849559790571901</v>
+      </c>
+      <c r="BL183">
+        <v>0.77659359647437498</v>
+      </c>
+      <c r="BM183">
+        <v>0.87785142683210604</v>
+      </c>
+    </row>
+    <row r="188" spans="2:65" x14ac:dyDescent="0.3">
       <c r="R188" s="1"/>
       <c r="AA188" s="1"/>
       <c r="AB188" s="1"/>
@@ -1963,21 +2396,33 @@
       <c r="AZ188" s="1"/>
       <c r="BA188" s="1"/>
     </row>
-    <row r="189" spans="2:55" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="190" spans="2:55" ht="52.2" x14ac:dyDescent="0.45">
+    <row r="189" spans="2:65" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="190" spans="2:65" ht="73.8" x14ac:dyDescent="0.45">
       <c r="B190" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D190" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="E190" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="191" spans="2:55" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B191">
         <v>0.35127872929757398</v>
       </c>
       <c r="C191">
         <v>0.35127872929987197</v>
+      </c>
+      <c r="D191">
+        <v>0.5</v>
+      </c>
+      <c r="E191">
+        <v>0.40979598956895003</v>
       </c>
       <c r="T191" s="1"/>
       <c r="AC191" s="1"/>
@@ -1988,511 +2433,889 @@
       <c r="BB191" s="1"/>
       <c r="BC191" s="1"/>
     </row>
-    <row r="192" spans="2:55" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B192">
         <v>3.7371793173683297E-2</v>
       </c>
       <c r="C192">
         <v>3.73717931738154E-2</v>
       </c>
-    </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D192">
+        <v>0.13397459621555999</v>
+      </c>
+      <c r="E192">
+        <v>5.5625079964247502E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B193">
         <v>0.16042708186874499</v>
       </c>
       <c r="C193">
         <v>0.160427081878011</v>
       </c>
-    </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D193">
+        <v>0.381966011250083</v>
+      </c>
+      <c r="E193">
+        <v>0.25824233635816402</v>
+      </c>
+    </row>
+    <row r="194" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B194">
         <v>0.43315658304599702</v>
       </c>
       <c r="C194">
         <v>0.433168882181027</v>
       </c>
-    </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D194">
+        <v>0.67712434430114499</v>
+      </c>
+      <c r="E194">
+        <v>0.58901548627895595</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B195">
         <v>3.9736073725178296E-3</v>
       </c>
       <c r="C195">
         <v>3.9736073725039397E-3</v>
       </c>
-    </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D195">
+        <v>4.0180217080291E-2</v>
+      </c>
+      <c r="E195">
+        <v>6.3947968098095999E-3</v>
+      </c>
+    </row>
+    <row r="196" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B196">
         <v>2.6755320385394198E-2</v>
       </c>
       <c r="C196">
         <v>2.6755320384714398E-2</v>
       </c>
-    </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D196">
+        <v>0.160713244785817</v>
+      </c>
+      <c r="E196">
+        <v>5.9233549323714003E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B197">
         <v>8.4664898386084E-2</v>
       </c>
       <c r="C197">
         <v>8.4664898409579803E-2</v>
       </c>
-    </row>
-    <row r="198" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D197">
+        <v>0.33053272861900002</v>
+      </c>
+      <c r="E197">
+        <v>0.19215404836529901</v>
+      </c>
+    </row>
+    <row r="198" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B198">
         <v>0.20857126243233401</v>
       </c>
       <c r="C198">
         <v>0.208571557037111</v>
       </c>
-    </row>
-    <row r="199" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D198">
+        <v>0.53249611624792104</v>
+      </c>
+      <c r="E198">
+        <v>0.40527130329440397</v>
+      </c>
+    </row>
+    <row r="199" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B199">
         <v>0.46473772074488501</v>
       </c>
       <c r="C199">
         <v>0.465662397841136</v>
       </c>
-    </row>
-    <row r="200" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D199">
+        <v>0.75747361721153506</v>
+      </c>
+      <c r="E199">
+        <v>0.68138124696554403</v>
+      </c>
+    </row>
+    <row r="200" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B200">
         <v>3.7594359166436101E-4</v>
       </c>
       <c r="C200">
         <v>3.7594359166925602E-4</v>
       </c>
-    </row>
-    <row r="201" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D200">
+        <v>1.2775377723769099E-2</v>
+      </c>
+      <c r="E200">
+        <v>6.4731255923328504E-4</v>
+      </c>
+    </row>
+    <row r="201" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B201">
         <v>4.5013989988175402E-3</v>
       </c>
       <c r="C201">
         <v>4.5013989988817596E-3</v>
       </c>
-    </row>
-    <row r="202" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D201">
+        <v>7.2438024517053196E-2</v>
+      </c>
+      <c r="E201">
+        <v>1.26174734573411E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B202">
         <v>1.8141958422456299E-2</v>
       </c>
       <c r="C202">
         <v>1.8141958420487801E-2</v>
       </c>
-    </row>
-    <row r="203" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D202">
+        <v>0.17250969843136599</v>
+      </c>
+      <c r="E202">
+        <v>5.9127790680243403E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B203">
         <v>4.9192413317299302E-2</v>
       </c>
       <c r="C203">
         <v>4.9192413373904197E-2</v>
       </c>
-    </row>
-    <row r="204" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D203">
+        <v>0.301931060945971</v>
+      </c>
+      <c r="E203">
+        <v>0.156317440941459</v>
+      </c>
+    </row>
+    <row r="204" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B204">
         <v>0.111859033804006</v>
       </c>
       <c r="C204">
         <v>0.111859100702067</v>
       </c>
-    </row>
-    <row r="205" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D204">
+        <v>0.45344254530874301</v>
+      </c>
+      <c r="E204">
+        <v>0.307031253016669</v>
+      </c>
+    </row>
+    <row r="205" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B205">
         <v>0.23569795931913301</v>
       </c>
       <c r="C205">
         <v>0.23572897699473699</v>
       </c>
-    </row>
-    <row r="206" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D205">
+        <v>0.62229768177335998</v>
+      </c>
+      <c r="E205">
+        <v>0.50489076605586602</v>
+      </c>
+    </row>
+    <row r="206" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B206">
         <v>0.47784224467142999</v>
       </c>
       <c r="C206">
         <v>0.48504726165220402</v>
       </c>
-    </row>
-    <row r="207" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D206">
+        <v>0.80522619095533599</v>
+      </c>
+      <c r="E206">
+        <v>0.73948346408461896</v>
+      </c>
+    </row>
+    <row r="207" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B207" s="1">
         <v>3.0477193973589601E-5</v>
       </c>
       <c r="C207" s="1">
         <v>3.0477193973726499E-5</v>
       </c>
-    </row>
-    <row r="208" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D207">
+        <v>4.1729492955049196E-3</v>
+      </c>
+      <c r="E207" s="1">
+        <v>6.0166218377944498E-5</v>
+      </c>
+    </row>
+    <row r="208" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B208">
         <v>6.9391882869979105E-4</v>
       </c>
       <c r="C208">
         <v>6.9391882874895203E-4</v>
       </c>
-    </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D208">
+        <v>3.4051763354493801E-2</v>
+      </c>
+      <c r="E208">
+        <v>2.61478994275643E-3</v>
+      </c>
+    </row>
+    <row r="209" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B209">
         <v>3.8565843276021699E-3</v>
       </c>
       <c r="C209">
         <v>3.8565843277149998E-3</v>
       </c>
-    </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D209">
+        <v>9.42290769692323E-2</v>
+      </c>
+      <c r="E209">
+        <v>1.7760487551647601E-2</v>
+      </c>
+    </row>
+    <row r="210" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B210">
         <v>1.24170814032837E-2</v>
       </c>
       <c r="C210">
         <v>1.2417081406313099E-2</v>
       </c>
-    </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D210">
+        <v>0.17917004470057399</v>
+      </c>
+      <c r="E210">
+        <v>5.8672127235652197E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B211">
         <v>3.0562446690385402E-2</v>
       </c>
       <c r="C211">
         <v>3.0562446842540999E-2</v>
       </c>
-    </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D211">
+        <v>0.28376704940585701</v>
+      </c>
+      <c r="E211">
+        <v>0.134424303702293</v>
+      </c>
+    </row>
+    <row r="212" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B212">
         <v>6.5331616669896994E-2</v>
       </c>
       <c r="C212">
         <v>6.5331656800531296E-2</v>
       </c>
-    </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D212">
+        <v>0.40426159723051303</v>
+      </c>
+      <c r="E212">
+        <v>0.247934188155289</v>
+      </c>
+    </row>
+    <row r="213" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B213">
         <v>0.13033285319465299</v>
       </c>
       <c r="C213">
         <v>0.13033812438349801</v>
       </c>
-    </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D213">
+        <v>0.537904562458974</v>
+      </c>
+      <c r="E213">
+        <v>0.39701985356904401</v>
+      </c>
+    </row>
+    <row r="214" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B214">
         <v>0.25364525996109399</v>
       </c>
       <c r="C214">
         <v>0.25407350066623402</v>
       </c>
-    </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D214">
+        <v>0.68261643476813105</v>
+      </c>
+      <c r="E214">
+        <v>0.57639833151620801</v>
+      </c>
+    </row>
+    <row r="215" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B215">
         <v>0.47446913532214402</v>
       </c>
       <c r="C215">
         <v>0.49846220010046899</v>
       </c>
-    </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D215">
+        <v>0.83675570355079698</v>
+      </c>
+      <c r="E215">
+        <v>0.77954124464336705</v>
+      </c>
+    </row>
+    <row r="216" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B216" s="1">
         <v>2.1364505037947099E-6</v>
       </c>
       <c r="C216" s="1">
         <v>2.13645050276075E-6</v>
       </c>
-    </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D216">
+        <v>1.3793348977997001E-3</v>
+      </c>
+      <c r="E216" s="1">
+        <v>5.3995222607374104E-6</v>
+      </c>
+    </row>
+    <row r="217" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B217" s="1">
         <v>9.4858605179276502E-5</v>
       </c>
       <c r="C217" s="1">
         <v>9.4858605165144903E-5</v>
       </c>
-    </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D217">
+        <v>1.6417156575653499E-2</v>
+      </c>
+      <c r="E217">
+        <v>5.5166527019031198E-4</v>
+      </c>
+    </row>
+    <row r="218" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B218">
         <v>7.5888470987942405E-4</v>
       </c>
       <c r="C218">
         <v>7.5888470987411796E-4</v>
       </c>
-    </row>
-    <row r="219" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D218">
+        <v>5.3065672382814601E-2</v>
+      </c>
+      <c r="E218">
+        <v>5.3980559295215497E-3</v>
+      </c>
+    </row>
+    <row r="219" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B219">
         <v>3.0604648580521798E-3</v>
       </c>
       <c r="C219">
         <v>3.06046485756381E-3</v>
       </c>
-    </row>
-    <row r="220" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D219">
+        <v>0.10980333313144799</v>
+      </c>
+      <c r="E219">
+        <v>2.2032555804596898E-2</v>
+      </c>
+    </row>
+    <row r="220" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B220">
         <v>8.6487002906542199E-3</v>
       </c>
       <c r="C220">
         <v>8.64870029312312E-3</v>
       </c>
-    </row>
-    <row r="221" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D220">
+        <v>0.18345124628561599</v>
+      </c>
+      <c r="E220">
+        <v>5.8345264251017097E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B221">
         <v>1.9918979461933099E-2</v>
       </c>
       <c r="C221">
         <v>1.99189799523114E-2</v>
       </c>
-    </row>
-    <row r="222" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D221">
+        <v>0.27121891063846698</v>
+      </c>
+      <c r="E221">
+        <v>0.119985157984556</v>
+      </c>
+    </row>
+    <row r="222" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B222">
         <v>4.06619347601406E-2</v>
       </c>
       <c r="C222">
         <v>4.0661975541949801E-2</v>
       </c>
-    </row>
-    <row r="223" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D222">
+        <v>0.37089663271152101</v>
+      </c>
+      <c r="E222">
+        <v>0.20943132376818999</v>
+      </c>
+    </row>
+    <row r="223" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B223">
         <v>7.7629564844366297E-2</v>
       </c>
       <c r="C223">
         <v>7.7631728601031999E-2</v>
       </c>
-    </row>
-    <row r="224" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D223">
+        <v>0.48073461141659202</v>
+      </c>
+      <c r="E223">
+        <v>0.326217664378397</v>
+      </c>
+    </row>
+    <row r="224" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B224">
         <v>0.14398727595694799</v>
       </c>
       <c r="C224">
         <v>0.14406863202513101</v>
       </c>
-    </row>
-    <row r="225" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D224">
+        <v>0.59930943234942202</v>
+      </c>
+      <c r="E224">
+        <v>0.46771283615263398</v>
+      </c>
+    </row>
+    <row r="225" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B225">
         <v>0.265327051768116</v>
       </c>
       <c r="C225">
         <v>0.26764976971698301</v>
       </c>
-    </row>
-    <row r="226" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D225">
+        <v>0.72542815016247697</v>
+      </c>
+      <c r="E225">
+        <v>0.630034894823569</v>
+      </c>
+    </row>
+    <row r="226" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B226">
         <v>0.45557999483761502</v>
       </c>
       <c r="C226">
         <v>0.50851982384630101</v>
       </c>
-    </row>
-    <row r="227" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D226">
+        <v>0.85806804811366399</v>
+      </c>
+      <c r="E226">
+        <v>0.80885714313356305</v>
+      </c>
+    </row>
+    <row r="227" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B227" s="1">
         <v>1.31623200499498E-7</v>
       </c>
       <c r="C227" s="1">
         <v>1.31623201670281E-7</v>
       </c>
-    </row>
-    <row r="228" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D227">
+        <v>4.5822633971614302E-4</v>
+      </c>
+      <c r="E227" s="1">
+        <v>4.9224861690789797E-7</v>
+      </c>
+    </row>
+    <row r="228" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B228" s="1">
         <v>1.14989799377749E-5</v>
       </c>
       <c r="C228" s="1">
         <v>1.14989799400582E-5</v>
       </c>
-    </row>
-    <row r="229" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D228">
+        <v>8.0358033949449893E-3</v>
+      </c>
+      <c r="E228">
+        <v>1.21831240171071E-4</v>
+      </c>
+    </row>
+    <row r="229" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B229">
         <v>1.3495935832146699E-4</v>
       </c>
       <c r="C229">
         <v>1.3495935832096701E-4</v>
       </c>
-    </row>
-    <row r="230" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D229">
+        <v>3.0505824559672601E-2</v>
+      </c>
+      <c r="E229">
+        <v>1.7009815144335501E-3</v>
+      </c>
+    </row>
+    <row r="230" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B230">
         <v>7.019427662253E-4</v>
       </c>
       <c r="C230">
         <v>7.0194276630586305E-4</v>
       </c>
-    </row>
-    <row r="231" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D230">
+        <v>6.8857512126765497E-2</v>
+      </c>
+      <c r="E230">
+        <v>8.4693782641277592E-3</v>
+      </c>
+    </row>
+    <row r="231" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B231">
         <v>2.3636319149747099E-3</v>
       </c>
       <c r="C231">
         <v>2.3636319153470101E-3</v>
       </c>
-    </row>
-    <row r="232" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D231">
+        <v>0.121475533679768</v>
+      </c>
+      <c r="E231">
+        <v>2.56196025815256E-2</v>
+      </c>
+    </row>
+    <row r="232" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B232">
         <v>6.1263520293454903E-3</v>
       </c>
       <c r="C232">
         <v>6.1263520565634898E-3</v>
       </c>
-    </row>
-    <row r="233" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D232">
+        <v>0.186430396926522</v>
+      </c>
+      <c r="E232">
+        <v>5.8185611929966102E-2</v>
+      </c>
+    </row>
+    <row r="233" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B233">
         <v>1.34460437344324E-2</v>
       </c>
       <c r="C233">
         <v>1.34460452718284E-2</v>
       </c>
-    </row>
-    <row r="234" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D233">
+        <v>0.26201388675181603</v>
+      </c>
+      <c r="E233">
+        <v>0.10993069312163301</v>
+      </c>
+    </row>
+    <row r="234" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B234">
         <v>2.6520990395890801E-2</v>
       </c>
       <c r="C234">
         <v>2.6521046976868301E-2</v>
       </c>
-    </row>
-    <row r="235" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D234">
+        <v>0.346790662022051</v>
+      </c>
+      <c r="E234">
+        <v>0.18285892238656801</v>
+      </c>
+    </row>
+    <row r="235" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B235">
         <v>4.8983344639572601E-2</v>
       </c>
       <c r="C235">
         <v>4.8984862617003903E-2</v>
       </c>
-    </row>
-    <row r="236" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D235">
+        <v>0.43954865058312198</v>
+      </c>
+      <c r="E235">
+        <v>0.27720596778565798</v>
+      </c>
+    </row>
+    <row r="236" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B236">
         <v>8.7405516813007497E-2</v>
       </c>
       <c r="C236">
         <v>8.7437096841053594E-2</v>
       </c>
-    </row>
-    <row r="237" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D236">
+        <v>0.53924630818005104</v>
+      </c>
+      <c r="E236">
+        <v>0.39173435261869</v>
+      </c>
+    </row>
+    <row r="237" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B237">
         <v>0.15431612800304001</v>
       </c>
       <c r="C237">
         <v>0.15484963401523399</v>
       </c>
-    </row>
-    <row r="238" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D237">
+        <v>0.64497600187777004</v>
+      </c>
+      <c r="E237">
+        <v>0.52417380910289102</v>
+      </c>
+    </row>
+    <row r="238" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B238">
         <v>0.27070191696836998</v>
       </c>
       <c r="C238">
         <v>0.27827544186622299</v>
       </c>
-    </row>
-    <row r="239" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D238">
+        <v>0.75594129278379196</v>
+      </c>
+      <c r="E238">
+        <v>0.67168275847863101</v>
+      </c>
+    </row>
+    <row r="239" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B239">
         <v>0.42371188750134298</v>
       </c>
       <c r="C239">
         <v>0.51645308929781297</v>
       </c>
-    </row>
-    <row r="240" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D239">
+        <v>0.87144223767828799</v>
+      </c>
+      <c r="E239">
+        <v>0.83125043798475196</v>
+      </c>
+    </row>
+    <row r="240" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B240" s="1">
         <v>7.2290654289133099E-9</v>
       </c>
       <c r="C240" s="1">
         <v>7.2290659972779497E-9</v>
       </c>
-    </row>
-    <row r="241" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D240">
+        <v>1.52539844270318E-4</v>
+      </c>
+      <c r="E240" s="1">
+        <v>4.7205962766140997E-8</v>
+      </c>
+    </row>
+    <row r="241" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B241" s="1">
         <v>1.2476073778868201E-6</v>
       </c>
       <c r="C241" s="1">
         <v>1.24760737660725E-6</v>
       </c>
-    </row>
-    <row r="242" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D241">
+        <v>3.9688202645660701E-3</v>
+      </c>
+      <c r="E241" s="1">
+        <v>2.82451868283853E-5</v>
+      </c>
+    </row>
+    <row r="242" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B242" s="1">
         <v>2.1649989014664001E-5</v>
       </c>
       <c r="C242" s="1">
         <v>2.1649989021561001E-5</v>
       </c>
-    </row>
-    <row r="243" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D242">
+        <v>1.77833073346342E-2</v>
+      </c>
+      <c r="E242">
+        <v>5.5902137988043997E-4</v>
+      </c>
+    </row>
+    <row r="243" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B243">
         <v>1.47292180013116E-4</v>
       </c>
       <c r="C243">
         <v>1.4729218000923599E-4</v>
       </c>
-    </row>
-    <row r="244" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D243">
+        <v>4.3902554498400602E-2</v>
+      </c>
+      <c r="E243">
+        <v>3.3682647388456402E-3</v>
+      </c>
+    </row>
+    <row r="244" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B244">
         <v>6.03383476782503E-4</v>
       </c>
       <c r="C244">
         <v>6.0338347678943604E-4</v>
       </c>
-    </row>
-    <row r="245" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D244">
+        <v>8.1889569546266805E-2</v>
+      </c>
+      <c r="E244">
+        <v>1.15323938594592E-2</v>
+      </c>
+    </row>
+    <row r="245" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B245">
         <v>1.8074418544846401E-3</v>
       </c>
       <c r="C245">
         <v>1.8074418593201399E-3</v>
       </c>
-    </row>
-    <row r="246" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D245">
+        <v>0.130543122245485</v>
+      </c>
+      <c r="E245">
+        <v>2.8666262670811099E-2</v>
+      </c>
+    </row>
+    <row r="246" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B246">
         <v>4.4037067849082403E-3</v>
       </c>
       <c r="C246">
         <v>4.4037069651237E-3</v>
       </c>
-    </row>
-    <row r="247" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D246">
+        <v>0.188600930889533</v>
+      </c>
+      <c r="E246">
+        <v>5.8156686660025499E-2</v>
+      </c>
+    </row>
+    <row r="247" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B247">
         <v>9.3200787152469596E-3</v>
       </c>
       <c r="C247">
         <v>9.3200835403194696E-3</v>
       </c>
-    </row>
-    <row r="248" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D247">
+        <v>0.25491445097806198</v>
+      </c>
+      <c r="E247">
+        <v>0.102634818155783</v>
+      </c>
+    </row>
+    <row r="248" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B248">
         <v>1.7911063857288499E-2</v>
       </c>
       <c r="C248">
         <v>1.7911159942436101E-2</v>
       </c>
-    </row>
-    <row r="249" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D248">
+        <v>0.32846701124349298</v>
+      </c>
+      <c r="E248">
+        <v>0.163698216150579</v>
+      </c>
+    </row>
+    <row r="249" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B249">
         <v>3.2280750850917E-2</v>
       </c>
       <c r="C249">
         <v>3.22822641387292E-2</v>
       </c>
-    </row>
-    <row r="250" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D249">
+        <v>0.40835792985254199</v>
+      </c>
+      <c r="E249">
+        <v>0.241846557241537</v>
+      </c>
+    </row>
+    <row r="250" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B250">
         <v>5.5964729252236299E-2</v>
       </c>
       <c r="C250">
         <v>5.5984406357492598E-2</v>
       </c>
-    </row>
-    <row r="251" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D250">
+        <v>0.493786653708914</v>
+      </c>
+      <c r="E250">
+        <v>0.33658082426965202</v>
+      </c>
+    </row>
+    <row r="251" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B251">
         <v>9.5296561362276294E-2</v>
       </c>
       <c r="C251">
         <v>9.5514601285259196E-2</v>
       </c>
-    </row>
-    <row r="252" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D251">
+        <v>0.58404216943479903</v>
+      </c>
+      <c r="E251">
+        <v>0.44660827733631703</v>
+      </c>
+    </row>
+    <row r="252" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B252">
         <v>0.16152968422635</v>
       </c>
       <c r="C252">
         <v>0.16363865836497199</v>
       </c>
-    </row>
-    <row r="253" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D252">
+        <v>0.67849559790571901</v>
+      </c>
+      <c r="E252">
+        <v>0.57009622290569495</v>
+      </c>
+    </row>
+    <row r="253" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B253">
         <v>0.26877141646876601</v>
       </c>
       <c r="C253">
         <v>0.28691404935840997</v>
       </c>
-    </row>
-    <row r="254" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D253">
+        <v>0.77659359647437498</v>
+      </c>
+      <c r="E253">
+        <v>0.70492675192599197</v>
+      </c>
+    </row>
+    <row r="254" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B254">
         <v>0.38203348378810698</v>
       </c>
       <c r="C254">
         <v>0.52293512192923997</v>
       </c>
-    </row>
-    <row r="255" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D254">
+        <v>0.87785142683210604</v>
+      </c>
+      <c r="E254">
+        <v>0.84891890832005201</v>
+      </c>
+    </row>
+    <row r="255" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B255">
         <v>0</v>
       </c>
@@ -2501,4 +3324,932 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A2FAEF-B53A-4770-AA5B-010E36154E2C}">
+  <dimension ref="A4:AH52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>0.206785</v>
+      </c>
+      <c r="D5">
+        <v>0.31200600000000001</v>
+      </c>
+      <c r="E5">
+        <v>0.208571557037111</v>
+      </c>
+      <c r="F5">
+        <v>0.53249611624792104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>2.5</v>
+      </c>
+      <c r="C6">
+        <v>0.46518999999999999</v>
+      </c>
+      <c r="D6">
+        <v>0.53864999999999996</v>
+      </c>
+      <c r="E6">
+        <v>0.465662397841136</v>
+      </c>
+      <c r="F6">
+        <v>0.75747361721153506</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>4.8472300000000003E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.13234399999999999</v>
+      </c>
+      <c r="E7">
+        <v>4.9192413373904197E-2</v>
+      </c>
+      <c r="F7">
+        <v>0.301931060945971</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>2.5</v>
+      </c>
+      <c r="C8">
+        <v>0.111081</v>
+      </c>
+      <c r="D8">
+        <v>0.215449</v>
+      </c>
+      <c r="E8">
+        <v>0.111859100702067</v>
+      </c>
+      <c r="F8">
+        <v>0.45344254530874301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>0.234986</v>
+      </c>
+      <c r="D9">
+        <v>0.33465299999999998</v>
+      </c>
+      <c r="E9">
+        <v>0.23572897699473699</v>
+      </c>
+      <c r="F9">
+        <v>0.62229768177335998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>3.5</v>
+      </c>
+      <c r="C10">
+        <v>0.484402</v>
+      </c>
+      <c r="D10">
+        <v>0.55284100000000003</v>
+      </c>
+      <c r="E10">
+        <v>0.48504726165220402</v>
+      </c>
+      <c r="F10">
+        <v>0.80522619095533599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>1.2101000000000001E-2</v>
+      </c>
+      <c r="D11">
+        <v>6.2059299999999998E-2</v>
+      </c>
+      <c r="E11">
+        <v>1.2417081406313099E-2</v>
+      </c>
+      <c r="F11">
+        <v>0.17917004470057399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>2.5</v>
+      </c>
+      <c r="C12">
+        <v>3.02977E-2</v>
+      </c>
+      <c r="D12">
+        <v>9.7027699999999995E-2</v>
+      </c>
+      <c r="E12">
+        <v>3.0562446842540999E-2</v>
+      </c>
+      <c r="F12">
+        <v>0.28376704940585701</v>
+      </c>
+      <c r="K12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>6.4717300000000005E-2</v>
+      </c>
+      <c r="D13">
+        <v>0.14622299999999999</v>
+      </c>
+      <c r="E13">
+        <v>6.5331656800531296E-2</v>
+      </c>
+      <c r="F13">
+        <v>0.40426159723051303</v>
+      </c>
+      <c r="K13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>3.5</v>
+      </c>
+      <c r="C14">
+        <v>0.130382</v>
+      </c>
+      <c r="D14">
+        <v>0.22110099999999999</v>
+      </c>
+      <c r="E14">
+        <v>0.13033812438349801</v>
+      </c>
+      <c r="F14">
+        <v>0.537904562458974</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>0.25442500000000001</v>
+      </c>
+      <c r="D15">
+        <v>0.33794000000000002</v>
+      </c>
+      <c r="E15">
+        <v>0.25407350066623402</v>
+      </c>
+      <c r="F15">
+        <v>0.68261643476813105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>4.5</v>
+      </c>
+      <c r="C16">
+        <v>0.497886</v>
+      </c>
+      <c r="D16">
+        <v>0.55151700000000003</v>
+      </c>
+      <c r="E16">
+        <v>0.49846220010046899</v>
+      </c>
+      <c r="F16">
+        <v>0.83675570355079698</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>2.9039999999999999E-3</v>
+      </c>
+      <c r="D17">
+        <v>2.9274000000000001E-2</v>
+      </c>
+      <c r="E17">
+        <v>3.06046485756381E-3</v>
+      </c>
+      <c r="F17">
+        <v>0.10980333313144799</v>
+      </c>
+      <c r="Z17" s="1"/>
+      <c r="AB17" s="1"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>2.5</v>
+      </c>
+      <c r="C18">
+        <v>8.4666700000000008E-3</v>
+      </c>
+      <c r="D18">
+        <v>4.6807700000000001E-2</v>
+      </c>
+      <c r="E18">
+        <v>8.64870029312312E-3</v>
+      </c>
+      <c r="F18">
+        <v>0.18345124628561599</v>
+      </c>
+      <c r="Z18" s="1"/>
+      <c r="AB18" s="1"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>1.9632699999999999E-2</v>
+      </c>
+      <c r="D19">
+        <v>6.8605299999999994E-2</v>
+      </c>
+      <c r="E19">
+        <v>1.99189799523114E-2</v>
+      </c>
+      <c r="F19">
+        <v>0.27121891063846698</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>3.5</v>
+      </c>
+      <c r="C20">
+        <v>4.0616300000000001E-2</v>
+      </c>
+      <c r="D20">
+        <v>9.801E-2</v>
+      </c>
+      <c r="E20">
+        <v>4.0661975541949801E-2</v>
+      </c>
+      <c r="F20">
+        <v>0.37089663271152101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>7.7345700000000003E-2</v>
+      </c>
+      <c r="D21">
+        <v>0.148788</v>
+      </c>
+      <c r="E21">
+        <v>7.7631728601031999E-2</v>
+      </c>
+      <c r="F21">
+        <v>0.48073461141659202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>4.5</v>
+      </c>
+      <c r="C22">
+        <v>0.14391000000000001</v>
+      </c>
+      <c r="D22">
+        <v>0.21920100000000001</v>
+      </c>
+      <c r="E22">
+        <v>0.14406863202513101</v>
+      </c>
+      <c r="F22">
+        <v>0.59930943234942202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>0.26713100000000001</v>
+      </c>
+      <c r="D23">
+        <v>0.33645700000000001</v>
+      </c>
+      <c r="E23">
+        <v>0.26764976971698301</v>
+      </c>
+      <c r="F23">
+        <v>0.72542815016247697</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>5.5</v>
+      </c>
+      <c r="C24">
+        <v>0.50737500000000002</v>
+      </c>
+      <c r="D24">
+        <v>0.56569700000000001</v>
+      </c>
+      <c r="E24">
+        <v>0.50851982384630101</v>
+      </c>
+      <c r="F24">
+        <v>0.85806804811366399</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>6.7133299999999998E-4</v>
+      </c>
+      <c r="D25">
+        <v>1.4296700000000001E-2</v>
+      </c>
+      <c r="E25">
+        <v>7.0194276630586305E-4</v>
+      </c>
+      <c r="F25">
+        <v>6.8857512126765497E-2</v>
+      </c>
+      <c r="Z25" s="1"/>
+      <c r="AB25" s="1"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>2.5</v>
+      </c>
+      <c r="C26">
+        <v>2.3493300000000002E-3</v>
+      </c>
+      <c r="D26">
+        <v>2.33457E-2</v>
+      </c>
+      <c r="E26">
+        <v>2.3636319153470101E-3</v>
+      </c>
+      <c r="F26">
+        <v>0.121475533679768</v>
+      </c>
+      <c r="Z26" s="1"/>
+      <c r="AB26" s="1"/>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>6.1180000000000002E-3</v>
+      </c>
+      <c r="D27">
+        <v>3.4437299999999997E-2</v>
+      </c>
+      <c r="E27">
+        <v>6.1263520565634898E-3</v>
+      </c>
+      <c r="F27">
+        <v>0.186430396926522</v>
+      </c>
+      <c r="Z27" s="1"/>
+      <c r="AB27" s="1"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>3.5</v>
+      </c>
+      <c r="C28">
+        <v>1.3338300000000001E-2</v>
+      </c>
+      <c r="D28">
+        <v>4.8360300000000002E-2</v>
+      </c>
+      <c r="E28">
+        <v>1.34460452718284E-2</v>
+      </c>
+      <c r="F28">
+        <v>0.26201388675181603</v>
+      </c>
+      <c r="Z28" s="1"/>
+      <c r="AB28" s="1"/>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>2.6588299999999999E-2</v>
+      </c>
+      <c r="D29">
+        <v>7.0685300000000006E-2</v>
+      </c>
+      <c r="E29">
+        <v>2.6521046976868301E-2</v>
+      </c>
+      <c r="F29">
+        <v>0.346790662022051</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>4.5</v>
+      </c>
+      <c r="C30">
+        <v>4.8819000000000001E-2</v>
+      </c>
+      <c r="D30">
+        <v>0.102353</v>
+      </c>
+      <c r="E30">
+        <v>4.8984862617003903E-2</v>
+      </c>
+      <c r="F30">
+        <v>0.43954865058312198</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>8.7158299999999994E-2</v>
+      </c>
+      <c r="D31">
+        <v>0.141926</v>
+      </c>
+      <c r="E31">
+        <v>8.7437096841053594E-2</v>
+      </c>
+      <c r="F31">
+        <v>0.53924630818005104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <v>5.5</v>
+      </c>
+      <c r="C32">
+        <v>0.154333</v>
+      </c>
+      <c r="D32">
+        <v>0.219328</v>
+      </c>
+      <c r="E32">
+        <v>0.15484963401523399</v>
+      </c>
+      <c r="F32">
+        <v>0.64497600187777004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>7</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>0.27883999999999998</v>
+      </c>
+      <c r="D33">
+        <v>0.336586</v>
+      </c>
+      <c r="E33">
+        <v>0.27827544186622299</v>
+      </c>
+      <c r="F33">
+        <v>0.75594129278379196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>7</v>
+      </c>
+      <c r="B34">
+        <v>6.5</v>
+      </c>
+      <c r="C34">
+        <v>0.51663599999999998</v>
+      </c>
+      <c r="D34">
+        <v>0.54718900000000004</v>
+      </c>
+      <c r="E34">
+        <v>0.51645308929781297</v>
+      </c>
+      <c r="F34">
+        <v>0.87144223767828799</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>1.4566700000000001E-4</v>
+      </c>
+      <c r="D35">
+        <v>7.1346700000000001E-3</v>
+      </c>
+      <c r="E35">
+        <v>1.4729218000923599E-4</v>
+      </c>
+      <c r="F35">
+        <v>4.3902554498400602E-2</v>
+      </c>
+      <c r="Z35" s="1"/>
+      <c r="AB35" s="1"/>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>8</v>
+      </c>
+      <c r="B36">
+        <v>2.5</v>
+      </c>
+      <c r="C36">
+        <v>6.3166700000000004E-4</v>
+      </c>
+      <c r="D36">
+        <v>1.1446E-2</v>
+      </c>
+      <c r="E36">
+        <v>6.0338347678943604E-4</v>
+      </c>
+      <c r="F36">
+        <v>8.1889569546266805E-2</v>
+      </c>
+      <c r="Z36" s="1"/>
+      <c r="AB36" s="1"/>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>8</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>1.78667E-3</v>
+      </c>
+      <c r="D37">
+        <v>1.7078300000000001E-2</v>
+      </c>
+      <c r="E37">
+        <v>1.8074418593201399E-3</v>
+      </c>
+      <c r="F37">
+        <v>0.130543122245485</v>
+      </c>
+      <c r="Z37" s="1"/>
+      <c r="AB37" s="1"/>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <v>3.5</v>
+      </c>
+      <c r="C38">
+        <v>4.3759999999999997E-3</v>
+      </c>
+      <c r="D38">
+        <v>2.5098700000000002E-2</v>
+      </c>
+      <c r="E38">
+        <v>4.4037069651237E-3</v>
+      </c>
+      <c r="F38">
+        <v>0.188600930889533</v>
+      </c>
+      <c r="Z38" s="1"/>
+      <c r="AB38" s="1"/>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>8</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>9.1870000000000007E-3</v>
+      </c>
+      <c r="D39">
+        <v>3.6152299999999998E-2</v>
+      </c>
+      <c r="E39">
+        <v>9.3200835403194696E-3</v>
+      </c>
+      <c r="F39">
+        <v>0.25491445097806198</v>
+      </c>
+      <c r="Z39" s="1"/>
+      <c r="AB39" s="1"/>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>8</v>
+      </c>
+      <c r="B40">
+        <v>4.5</v>
+      </c>
+      <c r="C40">
+        <v>1.7923000000000001E-2</v>
+      </c>
+      <c r="D40">
+        <v>4.7405299999999997E-2</v>
+      </c>
+      <c r="E40">
+        <v>1.7911159942436101E-2</v>
+      </c>
+      <c r="F40">
+        <v>0.32846701124349298</v>
+      </c>
+      <c r="Z40" s="1"/>
+      <c r="AB40" s="1"/>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>8</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>3.2290300000000001E-2</v>
+      </c>
+      <c r="D41">
+        <v>6.9774299999999997E-2</v>
+      </c>
+      <c r="E41">
+        <v>3.22822641387292E-2</v>
+      </c>
+      <c r="F41">
+        <v>0.40835792985254199</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>8</v>
+      </c>
+      <c r="B42">
+        <v>5.5</v>
+      </c>
+      <c r="C42">
+        <v>5.6152000000000001E-2</v>
+      </c>
+      <c r="D42">
+        <v>9.45883E-2</v>
+      </c>
+      <c r="E42">
+        <v>5.5984406357492598E-2</v>
+      </c>
+      <c r="F42">
+        <v>0.493786653708914</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>8</v>
+      </c>
+      <c r="B43">
+        <v>6</v>
+      </c>
+      <c r="C43">
+        <v>9.5514000000000002E-2</v>
+      </c>
+      <c r="D43">
+        <v>0.146954</v>
+      </c>
+      <c r="E43">
+        <v>9.5514601285259196E-2</v>
+      </c>
+      <c r="F43">
+        <v>0.58404216943479903</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>8</v>
+      </c>
+      <c r="B44">
+        <v>6.5</v>
+      </c>
+      <c r="C44">
+        <v>0.16413700000000001</v>
+      </c>
+      <c r="D44">
+        <v>0.21106</v>
+      </c>
+      <c r="E44">
+        <v>0.16363865836497199</v>
+      </c>
+      <c r="F44">
+        <v>0.67849559790571901</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>8</v>
+      </c>
+      <c r="B45">
+        <v>7</v>
+      </c>
+      <c r="C45">
+        <v>0.28554200000000002</v>
+      </c>
+      <c r="D45">
+        <v>0.32570100000000002</v>
+      </c>
+      <c r="E45">
+        <v>0.28691404935840997</v>
+      </c>
+      <c r="F45">
+        <v>0.77659359647437498</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>8</v>
+      </c>
+      <c r="B46">
+        <v>7.5</v>
+      </c>
+      <c r="C46">
+        <v>0.52300400000000002</v>
+      </c>
+      <c r="D46">
+        <v>0.54645600000000005</v>
+      </c>
+      <c r="E46">
+        <v>0.52293512192923997</v>
+      </c>
+      <c r="F46">
+        <v>0.87785142683210604</v>
+      </c>
+    </row>
+    <row r="50" spans="3:34" x14ac:dyDescent="0.3">
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Z50" s="1"/>
+      <c r="AB50" s="1"/>
+      <c r="AH50" s="1"/>
+    </row>
+    <row r="51" spans="3:34" x14ac:dyDescent="0.3">
+      <c r="C51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Z51" s="1"/>
+      <c r="AB51" s="1"/>
+    </row>
+    <row r="52" spans="3:34" x14ac:dyDescent="0.3">
+      <c r="C52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="Z52" s="1"/>
+      <c r="AB52" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>